--- a/data_year/zb/公共管理、社会保障及其他/人民检察院审查批准、决定逮捕犯罪嫌疑人和提起公诉被告人情况/人民检察院决定起诉人数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民检察院审查批准、决定逮捕犯罪嫌疑人和提起公诉被告人情况/人民检察院决定起诉人数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,905 +503,481 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153107</v>
+        <v>238719</v>
       </c>
       <c r="C2" t="n">
-        <v>361964</v>
+        <v>463424</v>
       </c>
       <c r="D2" t="n">
-        <v>681254</v>
+        <v>1148409</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>45022</v>
+        <v>96964</v>
       </c>
       <c r="G2" t="n">
-        <v>683</v>
+        <v>1223</v>
       </c>
       <c r="H2" t="n">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="I2" t="n">
-        <v>94947</v>
+        <v>297019</v>
       </c>
       <c r="J2" t="n">
-        <v>27582</v>
+        <v>40789</v>
       </c>
       <c r="K2" t="n">
-        <v>2728</v>
+        <v>8568</v>
       </c>
       <c r="L2" t="n">
-        <v>25257</v>
+        <v>50775</v>
       </c>
       <c r="M2" t="n">
-        <v>24854</v>
+        <v>32221</v>
       </c>
       <c r="N2" t="n">
-        <v>708836</v>
+        <v>1189198</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169787</v>
+        <v>238013</v>
       </c>
       <c r="C3" t="n">
-        <v>429193</v>
+        <v>461706</v>
       </c>
       <c r="D3" t="n">
-        <v>817479</v>
+        <v>1201032</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>61909</v>
+        <v>130278</v>
       </c>
       <c r="G3" t="n">
-        <v>886</v>
+        <v>974</v>
       </c>
       <c r="H3" t="n">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="I3" t="n">
-        <v>131872</v>
+        <v>314881</v>
       </c>
       <c r="J3" t="n">
-        <v>27827</v>
+        <v>37829</v>
       </c>
       <c r="K3" t="n">
-        <v>2918</v>
+        <v>8172</v>
       </c>
       <c r="L3" t="n">
-        <v>23526</v>
+        <v>54891</v>
       </c>
       <c r="M3" t="n">
-        <v>24909</v>
+        <v>29657</v>
       </c>
       <c r="N3" t="n">
-        <v>845306</v>
+        <v>1238861</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172871</v>
+        <v>248618</v>
       </c>
       <c r="C4" t="n">
-        <v>442076</v>
+        <v>506186</v>
       </c>
       <c r="D4" t="n">
-        <v>829530</v>
+        <v>1390771</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>60990</v>
+        <v>185738</v>
       </c>
       <c r="G4" t="n">
-        <v>766</v>
+        <v>1049</v>
       </c>
       <c r="H4" t="n">
-        <v>231</v>
+        <v>339</v>
       </c>
       <c r="I4" t="n">
-        <v>128896</v>
+        <v>343816</v>
       </c>
       <c r="J4" t="n">
-        <v>25340</v>
+        <v>44411</v>
       </c>
       <c r="K4" t="n">
-        <v>2664</v>
+        <v>10057</v>
       </c>
       <c r="L4" t="n">
-        <v>23690</v>
+        <v>105024</v>
       </c>
       <c r="M4" t="n">
-        <v>22676</v>
+        <v>34354</v>
       </c>
       <c r="N4" t="n">
-        <v>854870</v>
+        <v>1435182</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166969</v>
+        <v>237959</v>
       </c>
       <c r="C5" t="n">
-        <v>414870</v>
-      </c>
-      <c r="D5" t="n">
-        <v>793093</v>
-      </c>
+        <v>444401</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>62543</v>
-      </c>
-      <c r="G5" t="n">
-        <v>456</v>
-      </c>
+        <v>201442</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>220</v>
+        <v>338</v>
       </c>
       <c r="I5" t="n">
-        <v>126591</v>
-      </c>
-      <c r="J5" t="n">
-        <v>26124</v>
-      </c>
+        <v>355250</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>3493</v>
+        <v>10162</v>
       </c>
       <c r="L5" t="n">
-        <v>21440</v>
+        <v>84202</v>
       </c>
       <c r="M5" t="n">
-        <v>22631</v>
+        <v>34722</v>
       </c>
       <c r="N5" t="n">
-        <v>819217</v>
+        <v>1369865</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>175871</v>
+        <v>235597</v>
       </c>
       <c r="C6" t="n">
-        <v>450745</v>
-      </c>
-      <c r="D6" t="n">
-        <v>867186</v>
-      </c>
+        <v>441971</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>77261</v>
-      </c>
-      <c r="G6" t="n">
-        <v>467</v>
-      </c>
+        <v>230372</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>221</v>
+        <v>374</v>
       </c>
       <c r="I6" t="n">
-        <v>140430</v>
-      </c>
-      <c r="J6" t="n">
-        <v>30788</v>
-      </c>
+        <v>391099</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>4657</v>
+        <v>10185</v>
       </c>
       <c r="L6" t="n">
-        <v>22179</v>
+        <v>91025</v>
       </c>
       <c r="M6" t="n">
-        <v>26131</v>
+        <v>35845</v>
       </c>
       <c r="N6" t="n">
-        <v>897974</v>
+        <v>1437899</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188574</v>
+        <v>216140</v>
       </c>
       <c r="C7" t="n">
-        <v>492080</v>
-      </c>
-      <c r="D7" t="n">
-        <v>950804</v>
-      </c>
+        <v>411143</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>83800</v>
-      </c>
-      <c r="G7" t="n">
-        <v>349</v>
-      </c>
+        <v>247511</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>336</v>
+        <v>259</v>
       </c>
       <c r="I7" t="n">
-        <v>160702</v>
-      </c>
-      <c r="J7" t="n">
-        <v>30205</v>
-      </c>
+        <v>421790</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>4675</v>
+        <v>8551</v>
       </c>
       <c r="L7" t="n">
-        <v>24950</v>
+        <v>93660</v>
       </c>
       <c r="M7" t="n">
-        <v>25530</v>
+        <v>34554</v>
       </c>
       <c r="N7" t="n">
-        <v>981009</v>
+        <v>1434714</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>196718</v>
+        <v>205537</v>
       </c>
       <c r="C8" t="n">
-        <v>501579</v>
-      </c>
-      <c r="D8" t="n">
-        <v>999086</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12</v>
-      </c>
+        <v>429627</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>90367</v>
-      </c>
-      <c r="G8" t="n">
-        <v>561</v>
-      </c>
+        <v>280559</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I8" t="n">
-        <v>181833</v>
-      </c>
-      <c r="J8" t="n">
-        <v>29966</v>
-      </c>
+        <v>389554</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>4851</v>
+        <v>7709</v>
       </c>
       <c r="L8" t="n">
-        <v>27728</v>
+        <v>96707</v>
       </c>
       <c r="M8" t="n">
-        <v>25115</v>
+        <v>29640</v>
       </c>
       <c r="N8" t="n">
-        <v>1029052</v>
+        <v>1440535</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>206715</v>
+        <v>223845</v>
       </c>
       <c r="C9" t="n">
-        <v>530256</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1082487</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7</v>
-      </c>
+        <v>448375</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>98159</v>
-      </c>
-      <c r="G9" t="n">
-        <v>619</v>
-      </c>
+        <v>367500</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="I9" t="n">
-        <v>213279</v>
-      </c>
-      <c r="J9" t="n">
-        <v>30832</v>
-      </c>
+        <v>521064</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>5454</v>
+        <v>7379</v>
       </c>
       <c r="L9" t="n">
-        <v>33095</v>
+        <v>103511</v>
       </c>
       <c r="M9" t="n">
-        <v>25378</v>
+        <v>33580</v>
       </c>
       <c r="N9" t="n">
-        <v>1113319</v>
+        <v>1705772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217558</v>
+        <v>223648</v>
       </c>
       <c r="C10" t="n">
-        <v>544805</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1143897</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
+        <v>424775</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>100195</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1407</v>
-      </c>
+        <v>401108</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>284</v>
+        <v>378</v>
       </c>
       <c r="I10" t="n">
-        <v>242079</v>
-      </c>
-      <c r="J10" t="n">
-        <v>33953</v>
-      </c>
+        <v>509569</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>6361</v>
+        <v>2384</v>
       </c>
       <c r="L10" t="n">
-        <v>37567</v>
+        <v>113285</v>
       </c>
       <c r="M10" t="n">
-        <v>27592</v>
+        <v>17340</v>
       </c>
       <c r="N10" t="n">
-        <v>1177850</v>
+        <v>1692846</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>227740</v>
+        <v>211180</v>
       </c>
       <c r="C11" t="n">
-        <v>502606</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1134380</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
+        <v>441437</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>94329</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1095</v>
-      </c>
-      <c r="H11" t="n">
-        <v>300</v>
-      </c>
+        <v>433428</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>265835</v>
-      </c>
-      <c r="J11" t="n">
-        <v>34529</v>
-      </c>
+        <v>575635</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>6936</v>
+        <v>2329</v>
       </c>
       <c r="L11" t="n">
-        <v>42473</v>
+        <v>138537</v>
       </c>
       <c r="M11" t="n">
-        <v>27593</v>
+        <v>15173</v>
       </c>
       <c r="N11" t="n">
-        <v>1168909</v>
+        <v>1818808</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>238719</v>
+        <v>167040</v>
       </c>
       <c r="C12" t="n">
-        <v>463424</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1148409</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
+        <v>385137</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>96964</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1223</v>
-      </c>
-      <c r="H12" t="n">
-        <v>283</v>
-      </c>
+        <v>377060</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>297019</v>
-      </c>
-      <c r="J12" t="n">
-        <v>40789</v>
-      </c>
+        <v>493850</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>8568</v>
+        <v>2164</v>
       </c>
       <c r="L12" t="n">
-        <v>50775</v>
+        <v>134157</v>
       </c>
       <c r="M12" t="n">
-        <v>32221</v>
+        <v>12674</v>
       </c>
       <c r="N12" t="n">
-        <v>1189198</v>
+        <v>1572971</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>238013</v>
+        <v>171780</v>
       </c>
       <c r="C13" t="n">
-        <v>461706</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1201032</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
+        <v>356646</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>130278</v>
-      </c>
-      <c r="G13" t="n">
-        <v>974</v>
-      </c>
-      <c r="H13" t="n">
-        <v>287</v>
-      </c>
+        <v>449915</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>314881</v>
-      </c>
-      <c r="J13" t="n">
-        <v>37829</v>
-      </c>
+        <v>618192</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>8172</v>
+        <v>2344</v>
       </c>
       <c r="L13" t="n">
-        <v>54891</v>
+        <v>134068</v>
       </c>
       <c r="M13" t="n">
-        <v>29657</v>
+        <v>14834</v>
       </c>
       <c r="N13" t="n">
-        <v>1238861</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>248618</v>
-      </c>
-      <c r="C14" t="n">
-        <v>506186</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1390771</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>185738</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1049</v>
-      </c>
-      <c r="H14" t="n">
-        <v>339</v>
-      </c>
-      <c r="I14" t="n">
-        <v>343816</v>
-      </c>
-      <c r="J14" t="n">
-        <v>44411</v>
-      </c>
-      <c r="K14" t="n">
-        <v>10057</v>
-      </c>
-      <c r="L14" t="n">
-        <v>105024</v>
-      </c>
-      <c r="M14" t="n">
-        <v>34354</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1435182</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>237959</v>
-      </c>
-      <c r="C15" t="n">
-        <v>444401</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>201442</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>338</v>
-      </c>
-      <c r="I15" t="n">
-        <v>355250</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>10162</v>
-      </c>
-      <c r="L15" t="n">
-        <v>84202</v>
-      </c>
-      <c r="M15" t="n">
-        <v>34722</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1369865</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>235597</v>
-      </c>
-      <c r="C16" t="n">
-        <v>441971</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>20</v>
-      </c>
-      <c r="F16" t="n">
-        <v>230372</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>374</v>
-      </c>
-      <c r="I16" t="n">
-        <v>391099</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>10185</v>
-      </c>
-      <c r="L16" t="n">
-        <v>91025</v>
-      </c>
-      <c r="M16" t="n">
-        <v>35845</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1437899</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>216140</v>
-      </c>
-      <c r="C17" t="n">
-        <v>411143</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>10</v>
-      </c>
-      <c r="F17" t="n">
-        <v>247511</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>259</v>
-      </c>
-      <c r="I17" t="n">
-        <v>421790</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>8551</v>
-      </c>
-      <c r="L17" t="n">
-        <v>93660</v>
-      </c>
-      <c r="M17" t="n">
-        <v>34554</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1434714</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>205537</v>
-      </c>
-      <c r="C18" t="n">
-        <v>429627</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>280559</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>289</v>
-      </c>
-      <c r="I18" t="n">
-        <v>389554</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>7709</v>
-      </c>
-      <c r="L18" t="n">
-        <v>96707</v>
-      </c>
-      <c r="M18" t="n">
-        <v>29640</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1440535</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>223845</v>
-      </c>
-      <c r="C19" t="n">
-        <v>448375</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>367500</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>322</v>
-      </c>
-      <c r="I19" t="n">
-        <v>521064</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>7379</v>
-      </c>
-      <c r="L19" t="n">
-        <v>103511</v>
-      </c>
-      <c r="M19" t="n">
-        <v>33580</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1705772</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>223648</v>
-      </c>
-      <c r="C20" t="n">
-        <v>424775</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>401108</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>378</v>
-      </c>
-      <c r="I20" t="n">
-        <v>509569</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>2384</v>
-      </c>
-      <c r="L20" t="n">
-        <v>113285</v>
-      </c>
-      <c r="M20" t="n">
-        <v>17340</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1692846</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>211180</v>
-      </c>
-      <c r="C21" t="n">
-        <v>441437</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>433428</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>575635</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>2329</v>
-      </c>
-      <c r="L21" t="n">
-        <v>138537</v>
-      </c>
-      <c r="M21" t="n">
-        <v>15173</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1818808</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>167040</v>
-      </c>
-      <c r="C22" t="n">
-        <v>385137</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>377060</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
-        <v>493850</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>2164</v>
-      </c>
-      <c r="L22" t="n">
-        <v>134157</v>
-      </c>
-      <c r="M22" t="n">
-        <v>12674</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1572971</v>
+        <v>1748962</v>
       </c>
     </row>
   </sheetData>
